--- a/data/trans_dic/P79_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.07409874457514373</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06996741770863522</v>
+        <v>0.06996741770863521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0716739363083163</v>
+        <v>0.07167393630831627</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05525854520043159</v>
+        <v>0.05396136264098821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05748283602505402</v>
+        <v>0.05631098545235835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05958529668814481</v>
+        <v>0.0606489853649804</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09800329104040972</v>
+        <v>0.09714238528591561</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08525397012200177</v>
+        <v>0.08439599373334836</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08450769993491918</v>
+        <v>0.08349732530517065</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04234008533908231</v>
+        <v>0.0423400853390823</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03919502196355605</v>
+        <v>0.03919502196355604</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04078869272828338</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03402100684518932</v>
+        <v>0.0339410568298813</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03148070489677278</v>
+        <v>0.03123196224050323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03452875549515881</v>
+        <v>0.03459277553431143</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05289893834925595</v>
+        <v>0.05258893175839342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04951564573832509</v>
+        <v>0.0495954031959866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04784291858898419</v>
+        <v>0.04782106477752879</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01317096157488521</v>
+        <v>0.0131709615748852</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01166208079576915</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006370246867022717</v>
+        <v>0.0058024435584419</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006136229312753043</v>
+        <v>0.005898563263430099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007747214877300128</v>
+        <v>0.007442594790566197</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02515694219384381</v>
+        <v>0.02430045190652119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02159028604529265</v>
+        <v>0.02056986912841921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01909090041497421</v>
+        <v>0.01932220976229654</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04166321325384555</v>
+        <v>0.04166321325384556</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04055294151353694</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03523666893772091</v>
+        <v>0.03550577932510719</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03509916217148022</v>
+        <v>0.03479611222801025</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03597996888898368</v>
+        <v>0.03624765893509455</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05054075937435756</v>
+        <v>0.04965806232877894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04745444387648348</v>
+        <v>0.04793863090205829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04593203898409802</v>
+        <v>0.04616841630105261</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31969</v>
+        <v>31218</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>47253</v>
+        <v>46290</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83453</v>
+        <v>84943</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56698</v>
+        <v>56200</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70082</v>
+        <v>69377</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>118359</v>
+        <v>116944</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75886</v>
+        <v>75708</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68357</v>
+        <v>67817</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>151994</v>
+        <v>152276</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117995</v>
+        <v>117303</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>107518</v>
+        <v>107691</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>210603</v>
+        <v>210506</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4533</v>
+        <v>4129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4509</v>
+        <v>4335</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11206</v>
+        <v>10765</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17901</v>
+        <v>17292</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15866</v>
+        <v>15116</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27614</v>
+        <v>27949</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>124057</v>
+        <v>125005</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130860</v>
+        <v>129731</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>260818</v>
+        <v>262759</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>177938</v>
+        <v>174830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176925</v>
+        <v>178730</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>332961</v>
+        <v>334674</v>
       </c>
     </row>
     <row r="20">
